--- a/googlemaplink.xlsx
+++ b/googlemaplink.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>https://www.google.co.in/maps/place/BUSINESS+SARTHI/data=!4m7!3m6!1s0x390cef8f6aaaaaab:0x1ecaa3e636c24ab9!8m2!3d28.6063152!4d77.3855549!16s%2Fg%2F11n90jf4xk!19sChIJq6qqao_vDDkRuUrCNuajyh4?authuser=0&amp;hl=en&amp;rclk=1</t>
   </si>
@@ -36,22 +36,169 @@
     <t>https://www.google.co.in/maps/place/Ketsaal+retails/data=!4m7!3m6!1s0x390ce5690a8a556b:0xe3452e8afed3301!8m2!3d28.6072003!4d77.3813878!16s%2Fg%2F11f2wf3v39!19sChIJa1WKCmnlDDkRATPtr-hSNA4?authuser=0&amp;hl=en&amp;rclk=1</t>
   </si>
   <si>
-    <t>https://www.google.co.in/maps/place/POOJA+HOMEO+CLINIC+(Dr.+Anil+Tripathi)/data=!4m7!3m6!1s0x399ab55ad2273091:0x805faa9e865b70f2!8m2!3d25.4492342!4d81.8767471!16s%2Fg%2F11f5hpmppj!19sChIJkTAn0lq1mjkR8nBbhp6qX4A?authuser=0&amp;hl=en&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.co.in/maps/place/Usha+Hospital,+A+Unit+Of+Shri+Shitla+Prasad+Hospital+PVT.+LTD./data=!4m7!3m6!1s0x399acb156e01ca79:0xa46007a278e1fa5f!8m2!3d25.4490516!4d81.8553301!16s%2Fg%2F11s7xq1zyk!19sChIJecoBbhXLmjkRX_rheKIHYKQ?authuser=0&amp;hl=en&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.co.in/maps/place/K.L+singh+homeopathy+clinic/data=!4m7!3m6!1s0x399ab5f080bf2421:0x6f6f4127a9f3a2fa!8m2!3d25.4497095!4d81.8706097!16s%2Fg%2F11h4dk98sz!19sChIJISS_gPC1mjkR-qLzqSdBb28?authuser=0&amp;hl=en&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.co.in/maps/place/Surbhi+Hospital/data=!4m7!3m6!1s0x3985354984a9cc95:0xb0ceb9a8016ccc0f!8m2!3d25.4298543!4d81.8466938!16s%2Fg%2F1pt_rg_v7!19sChIJlcyphEk1hTkRD8xsAai5zrA?authuser=0&amp;hl=en&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.co.in/maps/place/Prabhodaya+Hospital/data=!4m7!3m6!1s0x399acaa495555555:0x59a0273e6ccc4ad3!8m2!3d25.4530556!4d81.8565853!16s%2Fg%2F11csqs59cg!19sChIJVVVVlaTKmjkR00rMbD4noFk?authuser=0&amp;hl=en&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.co.in/maps/place/Motilal+Hospital/data=!4m7!3m6!1s0x399acaa1c3118ff9:0x587e835e07290610!8m2!3d25.4593359!4d81.8619529!16s%2Fg%2F124ydslwl!19sChIJ-Y8Rw6HKmjkREAYpB16Dflg?authuser=0&amp;hl=en&amp;rclk=1</t>
+    <t>https://www.google.co.in/maps/place/Pristine+Business+Solutions/data=!4m7!3m6!1s0x390cef8dbabbad11:0x6dff6d533e1d37c9!8m2!3d28.6133874!4d77.3880273!16s%2Fg%2F11c208q_9p!19sChIJEa27uo3vDDkRyTcdPlNt_20?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Jha+Group+Of+Services/data=!4m7!3m6!1s0x390ce52571bc18ef:0xca63837d9bbfab1f!8m2!3d28.5821195!4d77.3266991!16s%2Fg%2F11p5cm_w2s!19sChIJ7xi8cSXlDDkRH6u_m32DY8o?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Unilex+Business+Consultants+LLP/data=!4m7!3m6!1s0x390ce226c9955555:0x8af6f3ea27cb9a17!8m2!3d28.5939547!4d77.3246088!16s%2Fg%2F11f1rqwhrl!19sChIJVVWVySbiDDkRF5rLJ-rz9oo?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/SkyBox+Business+Centre+-+Lockable+Office+Spaces/data=!4m7!3m6!1s0x390cef95b7628671:0x9f69a590311488c7!8m2!3d28.6110793!4d77.3860936!16s%2Fg%2F11ffw74l64!19sChIJcYZit5XvDDkRx4gUMZClaZ8?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Crewman+Solution+Private+Limited/data=!4m7!3m6!1s0x390ce5acf36aba41:0xba86ac57943ae7e0!8m2!3d28.6164958!4d77.3871469!16s%2Fg%2F11fvv64wpv!19sChIJQbpq86zlDDkR4Oc6lFeshro?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Canopus+Business+Consulting+Pvt.+Ltd./data=!4m7!3m6!1s0x390ce458d0000001:0x3542261561ca75b4!8m2!3d28.5846875!4d77.3159296!16s%2Fg%2F11q40bj1v1!19sChIJAQAA0FjkDDkRtHXKYRUmQjU?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/business+consultant/data=!4m7!3m6!1s0x390ce5742f634cfb:0xb9a63e72b3da3d9!8m2!3d28.6085153!4d77.3202539!16s%2Fg%2F11t44zvddk!19sChIJ-0xjL3TlDDkR2aM9K-djmgs?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Business+consultancy+service/data=!4m7!3m6!1s0x390ceff5d2a20645:0x8835fcd7fce3aa7c!8m2!3d28.6198562!4d77.3806482!16s%2Fg%2F11h012dhd!19sChIJRQai0vXvDDkRfKrj_Nf8NYg?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Business+consultant/data=!4m7!3m6!1s0x390ce5709b5a2211:0xed5c5cdae31eec41!8m2!3d28.6043494!4d77.3771669!16s%2Fg%2F11pzx2_qtw!19sChIJESJam3DlDDkRQewe49pcXO0?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Invincible+Business+Solutions+Private+Limited/data=!4m7!3m6!1s0x390ce45c90000001:0x33e149dc70b9095d!8m2!3d28.5798877!4d77.3148814!16s%2Fg%2F11g6nh1k7t!19sChIJAQAAkFzkDDkRXQm5cNxJ4TM?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Pan+Business+Lists+Pvt.+Ltd./data=!4m7!3m6!1s0x390ce4fc8cf40259:0x23aa00ab21cd5803!8m2!3d28.5970537!4d77.3279759!16s%2Fg%2F11dxlbjphk!19sChIJWQL0jPzkDDkRA1jNIasAqiM?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Unilex+Consultants/data=!4m7!3m6!1s0x390ce54f9d918f01:0xf13f7bfdbf719487!8m2!3d28.5773799!4d77.3144936!16s%2Fg%2F11h5vm_20c!19sChIJAY-RnU_lDDkRh5Rxv_17P_E?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Procapitus+Business+Park/data=!4m7!3m6!1s0x390cef7a2841386b:0x76234340151074f1!8m2!3d28.6310035!4d77.3823308!16s%2Fg%2F11frp96vyl!19sChIJazhBKHrvDDkR8XQQFUBDI3Y?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Sulekha.com+New+Media+Pvt.+Ltd./data=!4m7!3m6!1s0x390ce458cf2a20d1:0xc5d707501c5e8d7d!8m2!3d28.5850056!4d77.3157529!16s%2Fg%2F11g9g_2ks9!19sChIJ0SAqz1jkDDkRfY1eHFAH18U?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Ufirm+Business+Park/data=!4m7!3m6!1s0x390ce506ffd5bea1:0x722435e19d8f8354!8m2!3d28.6269579!4d77.376677!16s%2Fg%2F11gkbmt9qz!19sChIJob7V_wblDDkRVIOPneE1JHI?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Saket+Hospital/data=!4m7!3m6!1s0x399ab55e8462df8d:0x2e414599593aab6!8m2!3d25.4578715!4d81.8711465!16s%2Fg%2F11_skhg1y!19sChIJjd9ihF61mjkRtqqTlVkU5AI?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Haiza+Hospital/data=!4m7!3m6!1s0x399ab550fc082acf:0xb6c7a2cbeb83b13a!8m2!3d25.4470336!4d81.873942!16s%2Fg%2F1hm2f71rc!19sChIJzyoI_FC1mjkROrGD68uix7Y?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Shreshthi+Hospital/data=!4m7!3m6!1s0x399acaaa2b7c8ffb:0x97e9aef8b2035303!8m2!3d25.4428027!4d81.863548!16s%2Fg%2F124ycd51y!19sChIJ-498K6rKmjkRA1MDsviu6Zc?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Narayan/data=!4m7!3m6!1s0x399ab55c48be43ff:0xfd1ceb832a39ad80!8m2!3d25.457731!4d81.8732339!16s%2Fg%2F11f2_tp7sm!19sChIJ_0O-SFy1mjkRgK05KoPrHP0?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Bhagwati+Hospital/data=!4m7!3m6!1s0x399ab558522a3607:0x956d37bfd8254a47!8m2!3d25.45168!4d81.868543!16s%2Fg%2F11ddwzl619!19sChIJBzYqUli1mjkRR0ol2L83bZU?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Jaya+Hospital/data=!4m7!3m6!1s0x399acad16d98ab95:0xb3bbf87b56059bd0!8m2!3d25.4433859!4d81.8667063!16s%2Fg%2F1tf9wt__!19sChIJlauYbdHKmjkR0JsFVnv4u7M?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Ramesth+Hospital/data=!4m7!3m6!1s0x399ab55a55555555:0xaf5383248e64b049!8m2!3d25.4526247!4d81.8743466!16s%2Fg%2F11ggkjw9yl!19sChIJVVVVVVq1mjkRSbBkjiSDU68?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Tilak+Hospital/data=!4m7!3m6!1s0x399ab55165c29d65:0xe56c3bcd6d10cb6c!8m2!3d25.4444258!4d81.8733556!16s%2Fg%2F124yhc2gq!19sChIJZZ3CZVG1mjkRbMsQbc07bOU?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Vasaa+Hospital/data=!4m7!3m6!1s0x399ab55ae478f969:0x8ff95e6a95826ef4!8m2!3d25.4522416!4d81.8752207!16s%2Fg%2F11dx8hs525!19sChIJafl45Fq1mjkR9G6ClWpe-Y8?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Alopi+Hospital/data=!4m7!3m6!1s0x399ab556b4f716bb:0x1b0cc6b8e69ed61e!8m2!3d25.4448209!4d81.87145!16s%2Fg%2F11b7ln88lg!19sChIJuxb3tFa1mjkRHtae5rjGDBs?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Keswani+Hospital/data=!4m7!3m6!1s0x399ab555e720357b:0x566ea39631ce7935!8m2!3d25.4431148!4d81.867474!16s%2Fg%2F1hd_p7912!19sChIJezUg51W1mjkRNXnOMZajblY?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Sardar+patel+sansthan+Hospital/data=!4m7!3m6!1s0x399ab55400a34891:0x116342d752308d4b!8m2!3d25.4433002!4d81.8715656!16s%2Fg%2F124ymlxtq!19sChIJkUijAFS1mjkRS40wUtdCYxE?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Urban+PHC+Daraganj/data=!4m7!3m6!1s0x399ab54e00a66c01:0x592fc507202de297!8m2!3d25.4440503!4d81.877374!16s%2Fg%2F11g6_cjvg2!19sChIJAWymAE61mjkRl-ItIAfFL1k?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Krishna+Hospital+And+Trauma+Centre/data=!4m7!3m6!1s0x399ab553ec202e53:0x16df0219251ac3d7!8m2!3d25.442536!4d81.8725424!16s%2Fg%2F11r48lrpt4!19sChIJUy4g7FO1mjkR18MaJRkC3xY?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Merrygold+Vijay+Hospital/data=!4m7!3m6!1s0x140d9b3c999b7e45:0xf2ac9ba0236f0263!8m2!3d25.4547814!4d81.8715476!16s%2Fg%2F11b7hp0gd1!19sChIJRX6bmTybDRQRYwJvI6CbrPI?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Jijivisha+Hospital/data=!4m7!3m6!1s0x399acaa8c686c5d7:0x47c45bd89aefdb86!8m2!3d25.4471087!4d81.8615502!16s%2Fg%2F11gdkxrrs5!19sChIJ18WGxqjKmjkRhtvvmthbxEc?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Krishna+medical/data=!4m7!3m6!1s0x399ab5baf7c43501:0xec8524b66b2ced42!8m2!3d25.4578716!4d81.8711466!16s%2Fg%2F11lgrll3_8!19sChIJATXE97q1mjkRQu0sa7Ykhew?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Geeta+Shukla+Hospital/data=!4m7!3m6!1s0x399ab558f24444bd:0xedbed0021bd282b1!8m2!3d25.45514!4d81.8805279!16s%2Fg%2F11g22ys23g!19sChIJvURE8li1mjkRsYLSGwLQvu0?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/R+S+HEALTH+CARE+(+A+Dental+%26+Multispeciality+Clinic+)/data=!4m7!3m6!1s0x399ab5e130f473ed:0x6ab92fbbdb6270b4!8m2!3d25.4514473!4d81.8736584!16s%2Fg%2F11qm_gccqf!19sChIJ7XP0MOG1mjkRtHBi27svuWo?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/UPHC+Daraganj+1st/data=!4m7!3m6!1s0x399ab518f8a96a53:0xef0039230987e0f8!8m2!3d25.444063!4d81.8811511!16s%2Fg%2F11h_0nk3qs!19sChIJU2qp-Bi1mjkR-OCHCSM5AO8?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Hotel+Hyphen+Premier/data=!4m10!3m9!1s0x390c640c95e43bfd:0x691e58d404961aa8!5m2!4m1!1i2!8m2!3d28.94836!4d77.675024!16s%2Fg%2F1hm3mvql8!19sChIJ_TvklQxkDDkRqBqWBNRYHmk?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/OYO+5183+Hotel+Subhadra+Residency/data=!4m10!3m9!1s0x390c640bd0eddb11:0x26391c5f49d0b378!5m2!4m1!1i2!8m2!3d28.944651!4d77.671277!16s%2Fg%2F11c2kky1jn!19sChIJEdvt0AtkDDkReLPQSV8cOSY?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Country+Inn+%26+Suites+by+Radisson,+Meerut/data=!4m10!3m9!1s0x390c640ca8cebe2f:0xf4899a916e2bd7db!5m2!4m1!1i2!8m2!3d28.947447!4d77.6755409!16s%2Fg%2F1ptxlt79q!19sChIJL77OqAxkDDkR29crbpGaifQ?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Hotel+Yadu+Residency/data=!4m10!3m9!1s0x390c64ec3e4e3eef:0x3c9fd634b94696b4!5m2!4m1!1i2!8m2!3d28.9725087!4d77.7152925!16s%2Fg%2F1vg_5ntb!19sChIJ7z5OPuxkDDkRtJZGuTTWnzw?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Hotel+Harmony+Inn/data=!4m10!3m9!1s0x390c7b520db75e7f:0xd7d832b51f0ee798!5m2!4m1!1i2!8m2!3d28.967008!4d77.7321134!16s%2Fg%2F11r91x7tm!19sChIJf163DVJ7DDkRmOcOH7Uy2Nc?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Hotel+Aroma+Regency/data=!4m10!3m9!1s0x390c6389ebbe34fb:0xa18fc3772cbc3c51!5m2!4m1!1i2!8m2!3d28.9413075!4d77.6832522!16s%2Fg%2F11dffbgy1p!19sChIJ-zS-64ljDDkRUTy8LHfDj6E?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/OYO+Flagship+23709+Hotel+Meerut+International/data=!4m10!3m9!1s0x390c67c0f6fcd829:0x39e2c2f38487ba51!5m2!4m1!1i2!8m2!3d28.9602467!4d77.643348!16s%2Fg%2F11h24qs5zg!19sChIJKdj89sBnDDkRUbqHhPPC4jk?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Godwin+Hotel+Meerut/data=!4m10!3m9!1s0x390c6690c095ea21:0xd44739c3d0cde30d!5m2!4m1!1i2!8m2!3d28.9672603!4d77.6394947!16s%2Fg%2F1v2kvtvp!19sChIJIeqVwJBmDDkRDePN0MM5R9Q?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/OYO+65136+Meerut+Inn/data=!4m10!3m9!1s0x390c67d80bfcaa59:0xb7f700a13f8ad709!5m2!4m1!1i2!8m2!3d28.9642786!4d77.6407118!16s%2Fg%2F11fqt7hxwh!19sChIJWar8C9hnDDkRCdeKP6EA97c?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Hotel+Mayur+Deluxe+-+Budget+hotel+in+Meerut/data=!4m10!3m9!1s0x390c64542e2a4861:0xf5c8e502b2c2243b!5m2!4m1!1i2!8m2!3d28.984345!4d77.6961281!16s%2Fg%2F1263csk37!19sChIJYUgqLlRkDDkROyTCsgLlyPU?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/OYO+5183+Hotel+Subhadra+Residency/data=!4m10!3m9!1s0x390c640c877b820b:0x26391c5f49d0b378!5m2!4m1!1i2!8m2!3d28.9446514!4d77.6712773!16s%2Fg%2F11c2kky1jn!19sChIJC4J7hwxkDDkReLPQSV8cOSY?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/SPOT+ON+48633+Hotel+Lucky/data=!4m10!3m9!1s0x390c6703c9bc2411:0x7d602b3487aee7ec!5m2!4m1!1i2!8m2!3d28.9835664!4d77.643239!16s%2Fg%2F11h7v5tx2n!19sChIJESS8yQNnDDkR7OeuhzQrYH0?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/OYO+14332+Raj+Palace/data=!4m10!3m9!1s0x390c65cb6d82c9a3:0xb9cd305f80f895bb!5m2!4m1!1i2!8m2!3d28.9752413!4d77.7169146!16s%2Fg%2F11ghfdbxm5!19sChIJo8mCbctlDDkRu5X4gF8wzbk?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/CAPITAL+O74359+Hotel+Mukut+Mahal/data=!4m10!3m9!1s0x390c646df071366f:0x22ae4eab4832f365!5m2!4m1!1i2!8m2!3d28.9542973!4d77.6813551!16s%2Fg%2F1tr7b5lm!19sChIJbzZx8G1kDDkRZfMySKtOriI?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Hotel+travel+inn/data=!4m10!3m9!1s0x390c645a376eb00d:0x87107a5432d39e58!5m2!4m1!1i2!8m2!3d28.9752989!4d77.6925907!16s%2Fg%2F11f3wcynyz!19sChIJDbBuN1pkDDkRWJ7TMlR6EIc?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Hotel+Hyphen+Premier/data=!4m10!3m9!1s0x390c640ca356bde1:0x691e58d404961aa8!5m2!4m1!1i2!8m2!3d28.9483598!4d77.6750242!16s%2Fg%2F1hm3mvql8!19sChIJ4b1WowxkDDkRqBqWBNRYHmk?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Hotel+Signature/data=!4m10!3m9!1s0x390c643b08690249:0xf332e4b058a07aa9!5m2!4m1!1i2!8m2!3d28.9721295!4d77.6807239!16s%2Fg%2F1tf6kl1k!19sChIJSQJpCDtkDDkRqXqgWLDkMvM?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Capital+O+16564+Garden+Resorts+And+Hotel/data=!4m10!3m9!1s0x390c652cc5220491:0x19df87e40ecf964b!5m2!4m1!1i2!8m2!3d28.9898975!4d77.6590539!16s%2Fg%2F11f7n_5v8t!19sChIJkQQixSxlDDkRS5bPDuSH3xk?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/OYO+22660+U+B+Resort/data=!4m10!3m9!1s0x390c66912af3eb93:0x5436ffc94fcb33d0!5m2!4m1!1i2!8m2!3d28.9650202!4d77.6401017!16s%2Fg%2F11cn5pfxll!19sChIJk-vzKpFmDDkR0DPLT8n_NlQ?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/OYO+76338+Hotel+Sky/data=!4m10!3m9!1s0x390c67221ea5517d:0x48b12a0b1f1f008f!5m2!4m1!1i2!8m2!3d28.9676637!4d77.6403576!16s%2Fg%2F11mvx9qzvq!19sChIJfVGlHiJnDDkRjwAfHwsqsUg?authuser=0&amp;hl=en&amp;rclk=1</t>
   </si>
 </sst>
 </file>
@@ -398,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:AP17"/>
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,6 +641,398 @@
         <v>10</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>

--- a/googlemaplink.xlsx
+++ b/googlemaplink.xlsx
@@ -1,114 +1,121 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
-  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <x:workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Robots\GitClone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6525" firstSheet="0" activeTab="0"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-  </x:sheets>
-  <x:definedNames/>
-  <x:calcPr calcId="0"/>
-</x:workbook>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6525"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="0"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <x:si>
-    <x:t>https://www.google.co.in/maps/place/BUSINESS+SARTHI/data=!4m7!3m6!1s0x390cef8f6aaaaaab:0x1ecaa3e636c24ab9!8m2!3d28.6063152!4d77.3855549!16s%2Fg%2F11n90jf4xk!19sChIJq6qqao_vDDkRuUrCNuajyh4?authuser=0&amp;hl=en&amp;rclk=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.co.in/maps/place/Business+Team/data=!4m7!3m6!1s0x390ce594d80af429:0xba550e863eb05782!8m2!3d28.5733398!4d77.3267832!16s%2Fg%2F11p04wnbh5!19sChIJKfQK2JTlDDkRglewPoYOVbo?authuser=0&amp;hl=en&amp;rclk=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.co.in/maps/place/Prakash+Hospital+-+Best+Hospital+in+Noida/data=!4m7!3m6!1s0x390ce57533094641:0x400722ded7e7d2d6!8m2!3d28.5855917!4d77.3494388!16s%2Fg%2F1hjgrhl16!19sChIJQUYJM3XlDDkR1tLn194iB0A?authuser=0&amp;hl=en&amp;rclk=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.co.in/maps/place/Om+Hospital/data=!4m7!3m6!1s0x390ce57d40000001:0x6016329741621b59!8m2!3d28.605394!4d77.3796764!16s%2Fg%2F11b7qr3ptm!19sChIJAQAAQH3lDDkRWRtiQZcyFmA?authuser=0&amp;hl=en&amp;rclk=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.co.in/maps/place/Treebo+Trend+House+Inn+-+Hotel+in+Noida/data=!4m10!3m9!1s0x390cef8197fa88e7:0xdb31531482061dc3!5m2!4m1!1i2!8m2!3d28.595256!4d77.382726!16s%2Fg%2F11gcx_v9b7!19sChIJ54j6l4HvDDkRwx0GghRTMds?authuser=0&amp;hl=en&amp;rclk=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.co.in/maps/place/OYO+19536+New+Apple+Pie/data=!4m10!3m9!1s0x390cef878960cca7:0x1d4bfe337e5195f6!5m2!4m1!1i2!8m2!3d28.602415!4d77.378641!16s%2Fg%2F11fcvb7c12!19sChIJp8xgiYfvDDkR9pVRfjP-Sx0?authuser=0&amp;hl=en&amp;rclk=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.co.in/maps/place/Shandilya+India+Marketing+Limited/data=!4m7!3m6!1s0x399acaa841be5555:0xb263d386a4ff5b38!8m2!3d25.4475119!4d81.8645333!16s%2Fg%2F11s5cr1q3r!19sChIJVVW-QajKmjkROFv_pIbTY7I?authuser=0&amp;hl=en&amp;rclk=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.co.in/maps/place/Maarut+Infra+Business+Solutions/data=!4m7!3m6!1s0x399ab53f81007e1b:0x971dfdb37a07d65d!8m2!3d25.4470188!4d81.8776364!16s%2Fg%2F11kcv5915f!19sChIJG34AgT-1mjkRXdYHerP9HZc?authuser=0&amp;hl=en&amp;rclk=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.co.in/maps/place/Saket+Hospital/data=!4m7!3m6!1s0x399ab55e8462df8d:0x2e414599593aab6!8m2!3d25.4578715!4d81.8711465!16s%2Fg%2F11_skhg1y!19sChIJjd9ihF61mjkRtqqTlVkU5AI?authuser=0&amp;hl=en&amp;rclk=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.co.in/maps/place/Haiza+Hospital/data=!4m7!3m6!1s0x399ab550fc082acf:0xb6c7a2cbeb83b13a!8m2!3d25.4470336!4d81.873942!16s%2Fg%2F1hm2f71rc!19sChIJzyoI_FC1mjkROrGD68uix7Y?authuser=0&amp;hl=en&amp;rclk=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.co.in/maps/place/Hotel+Ranjan/data=!4m10!3m9!1s0x399ab5500d8ef16b:0xe99176771f223589!5m2!4m1!1i2!8m2!3d25.4490721!4d81.8759352!16s%2Fg%2F1hm2sj2fd!19sChIJa_GODVC1mjkRiTUiH3d2kek?authuser=0&amp;hl=en&amp;rclk=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.co.in/maps/place/Swastik+Hotel/data=!4m10!3m9!1s0x399ab5e322d7af27:0xe17829fa9c8ed8ff!5m2!4m1!1i2!8m2!3d25.4538427!4d81.8717679!16s%2Fg%2F11fjtymxf5!19sChIJJ6_XIuO1mjkR_9iOnPopeOE?authuser=0&amp;hl=en&amp;rclk=1</x:t>
-  </x:si>
-</x:sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>https://www.google.co.in/maps/place/BUSINESS+SARTHI/data=!4m7!3m6!1s0x390cef8f6aaaaaab:0x1ecaa3e636c24ab9!8m2!3d28.6063152!4d77.3855549!16s%2Fg%2F11n90jf4xk!19sChIJq6qqao_vDDkRuUrCNuajyh4?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Business+Team/data=!4m7!3m6!1s0x390ce594d80af429:0xba550e863eb05782!8m2!3d28.5733398!4d77.3267832!16s%2Fg%2F11p04wnbh5!19sChIJKfQK2JTlDDkRglewPoYOVbo?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Prakash+Hospital+-+Best+Hospital+in+Noida/data=!4m7!3m6!1s0x390ce57533094641:0x400722ded7e7d2d6!8m2!3d28.5855917!4d77.3494388!16s%2Fg%2F1hjgrhl16!19sChIJQUYJM3XlDDkR1tLn194iB0A?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Om+Hospital/data=!4m7!3m6!1s0x390ce57d40000001:0x6016329741621b59!8m2!3d28.605394!4d77.3796764!16s%2Fg%2F11b7qr3ptm!19sChIJAQAAQH3lDDkRWRtiQZcyFmA?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Treebo+Trend+House+Inn+-+Hotel+in+Noida/data=!4m10!3m9!1s0x390cef8197fa88e7:0xdb31531482061dc3!5m2!4m1!1i2!8m2!3d28.595256!4d77.382726!16s%2Fg%2F11gcx_v9b7!19sChIJ54j6l4HvDDkRwx0GghRTMds?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/OYO+19536+New+Apple+Pie/data=!4m10!3m9!1s0x390cef878960cca7:0x1d4bfe337e5195f6!5m2!4m1!1i2!8m2!3d28.602415!4d77.378641!16s%2Fg%2F11fcvb7c12!19sChIJp8xgiYfvDDkR9pVRfjP-Sx0?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Shandilya+India+Marketing+Limited/data=!4m7!3m6!1s0x399acaa841be5555:0xb263d386a4ff5b38!8m2!3d25.4475119!4d81.8645333!16s%2Fg%2F11s5cr1q3r!19sChIJVVW-QajKmjkROFv_pIbTY7I?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Maarut+Infra+Business+Solutions/data=!4m7!3m6!1s0x399ab53f81007e1b:0x971dfdb37a07d65d!8m2!3d25.4470188!4d81.8776364!16s%2Fg%2F11kcv5915f!19sChIJG34AgT-1mjkRXdYHerP9HZc?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Saket+Hospital/data=!4m7!3m6!1s0x399ab55e8462df8d:0x2e414599593aab6!8m2!3d25.4578715!4d81.8711465!16s%2Fg%2F11_skhg1y!19sChIJjd9ihF61mjkRtqqTlVkU5AI?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Haiza+Hospital/data=!4m7!3m6!1s0x399ab550fc082acf:0xb6c7a2cbeb83b13a!8m2!3d25.4470336!4d81.873942!16s%2Fg%2F1hm2f71rc!19sChIJzyoI_FC1mjkROrGD68uix7Y?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Hotel+Ranjan/data=!4m10!3m9!1s0x399ab5500d8ef16b:0xe99176771f223589!5m2!4m1!1i2!8m2!3d25.4490721!4d81.8759352!16s%2Fg%2F1hm2sj2fd!19sChIJa_GODVC1mjkRiTUiH3d2kek?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Swastik+Hotel/data=!4m10!3m9!1s0x399ab5e322d7af27:0xe17829fa9c8ed8ff!5m2!4m1!1i2!8m2!3d25.4538427!4d81.8717679!16s%2Fg%2F11fjtymxf5!19sChIJJ6_XIuO1mjkR_9iOnPopeOE?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2">
-  <x:numFmts count="1">
-    <x:numFmt numFmtId="0" formatCode=""/>
-  </x:numFmts>
-  <x:fonts count="1" x14ac:knownFonts="1">
-    <x:font>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-  </x:fonts>
-  <x:fills count="2">
-    <x:fill>
-      <x:patternFill patternType="none"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="gray125"/>
-    </x:fill>
-  </x:fills>
-  <x:borders count="1">
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top/>
-      <x:bottom/>
-      <x:diagonal/>
-    </x:border>
-  </x:borders>
-  <x:cellStyleXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-  </x:cellStyleXfs>
-  <x:cellXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-  </x:cellXfs>
-  <x:cellStyles count="1">
-    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </x:cellStyles>
-  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+  </cellXfs>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </x:ext>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </x:ext>
-  </x:extLst>
-</x:styleSheet>
+    </ext>
+  </extLst>
+</styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -395,119 +402,115 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:B10"/>
-  <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="A11" sqref="A11 A11:AC54"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A1" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B1" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A2" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A3" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A4" s="0" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A5" s="0" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A6" s="0" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A7" s="0" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A8" s="0" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A9" s="0" t="n">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A10" s="0" t="n">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:2">
-      <x:c r="A11" s="0" t="n">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B11" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:2">
-      <x:c r="A12" s="0" t="n">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B12" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+</worksheet>
 </file>
--- a/googlemaplink.xlsx
+++ b/googlemaplink.xlsx
@@ -19,49 +19,130 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="39">
+  <si>
+    <t>SerialNo</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Zipcode</t>
+  </si>
   <si>
     <t>https://www.google.co.in/maps/place/BUSINESS+SARTHI/data=!4m7!3m6!1s0x390cef8f6aaaaaab:0x1ecaa3e636c24ab9!8m2!3d28.6063152!4d77.3855549!16s%2Fg%2F11n90jf4xk!19sChIJq6qqao_vDDkRuUrCNuajyh4?authuser=0&amp;hl=en&amp;rclk=1</t>
   </si>
   <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>201301</t>
+  </si>
+  <si>
     <t>https://www.google.co.in/maps/place/Business+Team/data=!4m7!3m6!1s0x390ce594d80af429:0xba550e863eb05782!8m2!3d28.5733398!4d77.3267832!16s%2Fg%2F11p04wnbh5!19sChIJKfQK2JTlDDkRglewPoYOVbo?authuser=0&amp;hl=en&amp;rclk=1</t>
   </si>
   <si>
+    <t>https://www.google.co.in/maps/place/Google+Ads,+PPC+Expert,+Business+Lead,+Application+Development+Company+2011.Wit+Source+Technology+Pravesh+Kumar/data=!4m7!3m6!1s0x390ceff9d399d305:0x9ecb2931a0a7f5c7!8m2!3d28.6127633!4d77.3871319!16s%2Fg%2F11f53q4gh0!19sChIJBdOZ0_nvDDkRx_WnoDEpy54?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Noida+Business+Center/data=!4m7!3m6!1s0x390ce56197fc4865:0xa7ef9bd718f8022c!8m2!3d28.6111637!4d77.3762547!16s%2Fg%2F11c53grj2c!19sChIJZUj8l2HlDDkRLAL4GNeb76c?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Ketsaal+retails/data=!4m7!3m6!1s0x390ce5690a8a556b:0xe3452e8afed3301!8m2!3d28.6072003!4d77.3813878!16s%2Fg%2F11f2wf3v39!19sChIJa1WKCmnlDDkRATPtr-hSNA4?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
     <t>https://www.google.co.in/maps/place/Prakash+Hospital+-+Best+Hospital+in+Noida/data=!4m7!3m6!1s0x390ce57533094641:0x400722ded7e7d2d6!8m2!3d28.5855917!4d77.3494388!16s%2Fg%2F1hjgrhl16!19sChIJQUYJM3XlDDkR1tLn194iB0A?authuser=0&amp;hl=en&amp;rclk=1</t>
   </si>
   <si>
+    <t>Hospitals</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Metro+Multispeciality+Hospital+:+Top+Multi-Specialty+Hospitals+in+India+for+2012-21/data=!4m7!3m6!1s0x390ce5035eaaaaab:0x2dd548f41f1a66b!8m2!3d28.5973485!4d77.3359651!16s%2Fg%2F1tf3xrt6!19sChIJq6qqXgPlDDkRa6bxQY9U3QI?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
     <t>https://www.google.co.in/maps/place/Om+Hospital/data=!4m7!3m6!1s0x390ce57d40000001:0x6016329741621b59!8m2!3d28.605394!4d77.3796764!16s%2Fg%2F11b7qr3ptm!19sChIJAQAAQH3lDDkRWRtiQZcyFmA?authuser=0&amp;hl=en&amp;rclk=1</t>
   </si>
   <si>
+    <t>https://www.google.co.in/maps/place/Surbhi+Hospital/data=!4m7!3m6!1s0x390ce50660126cdf:0x67ac45b45fb534d8!8m2!3d28.5940646!4d77.3409152!16s%2Fg%2F11by_d80sk!19sChIJ32wSYAblDDkR2DS1X7RFrGc?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Bharat+Hospital+Mini+Multi-specialty/data=!4m7!3m6!1s0x390ce57d5804b335:0x5f49a8b3e2fe078a!8m2!3d28.603399!4d77.3783498!16s%2Fg%2F11f5vg84lv!19sChIJNbMEWH3lDDkRigf-4rOoSV8?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
     <t>https://www.google.co.in/maps/place/Treebo+Trend+House+Inn+-+Hotel+in+Noida/data=!4m10!3m9!1s0x390cef8197fa88e7:0xdb31531482061dc3!5m2!4m1!1i2!8m2!3d28.595256!4d77.382726!16s%2Fg%2F11gcx_v9b7!19sChIJ54j6l4HvDDkRwx0GghRTMds?authuser=0&amp;hl=en&amp;rclk=1</t>
   </si>
   <si>
+    <t>Hotels</t>
+  </si>
+  <si>
     <t>https://www.google.co.in/maps/place/OYO+19536+New+Apple+Pie/data=!4m10!3m9!1s0x390cef878960cca7:0x1d4bfe337e5195f6!5m2!4m1!1i2!8m2!3d28.602415!4d77.378641!16s%2Fg%2F11fcvb7c12!19sChIJp8xgiYfvDDkR9pVRfjP-Sx0?authuser=0&amp;hl=en&amp;rclk=1</t>
   </si>
   <si>
+    <t>https://www.google.co.in/maps/place/Radisson+Blu+MBD+Hotel+Noida/data=!4m10!3m9!1s0x390ce448ebd846e9:0x63fc169409386086!5m2!4m1!1i2!8m2!3d28.5685191!4d77.3226455!16s%2Fg%2F1tf46jb_!19sChIJ6UbY60jkDDkRhmA4CZQW_GM?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/OYO+24622+Hotel+Crystal+Leaf/data=!4m10!3m9!1s0x390cef952b3a375b:0x75412688ec23e763!5m2!4m1!1i2!8m2!3d28.5949225!4d77.3828443!16s%2Fg%2F11fj9hmvjg!19sChIJWzc6K5XvDDkRY-cj7IgmQXU?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Mosaic+Hotel+Noida/data=!4m10!3m9!1s0x3a27af2c7febc29f:0x5dc65c5bd936894b!5m2!4m1!1i2!8m2!3d28.5711695!4d77.3252359!16s%2Fg%2F1tctvylc!19sChIJn8LrfyyvJzoRS4k22Vtcxl0?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
     <t>https://www.google.co.in/maps/place/Shandilya+India+Marketing+Limited/data=!4m7!3m6!1s0x399acaa841be5555:0xb263d386a4ff5b38!8m2!3d25.4475119!4d81.8645333!16s%2Fg%2F11s5cr1q3r!19sChIJVVW-QajKmjkROFv_pIbTY7I?authuser=0&amp;hl=en&amp;rclk=1</t>
   </si>
   <si>
+    <t>211006</t>
+  </si>
+  <si>
     <t>https://www.google.co.in/maps/place/Maarut+Infra+Business+Solutions/data=!4m7!3m6!1s0x399ab53f81007e1b:0x971dfdb37a07d65d!8m2!3d25.4470188!4d81.8776364!16s%2Fg%2F11kcv5915f!19sChIJG34AgT-1mjkRXdYHerP9HZc?authuser=0&amp;hl=en&amp;rclk=1</t>
   </si>
   <si>
+    <t>https://www.google.co.in/maps/place/Business+%26+Service+Solutions/data=!4m7!3m6!1s0x399ab5fefb7b8c51:0xedbe79397730143e!8m2!3d25.447362!4d81.8785337!16s%2Fg%2F11rkp0gpfh!19sChIJUYx7-_61mjkRPhQwdzl5vu0?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Shakti+Dhar+Dubey+%7C+Top+Business+Growth+Consultant+in+Allahabad+%7C+Best+Strategy+for+Business+Growth/data=!4m7!3m6!1s0x399acb48c8c4bd85:0x2c0e45b76e63176e!8m2!3d25.4490782!4d81.8542855!16s%2Fg%2F11rvbns477!19sChIJhb3EyEjLmjkRbhdjbrdFDiw?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Aarsh+Infra+Business+Solutions/data=!4m7!3m6!1s0x399ab514b05f95ab:0xdf07ed8b207a45c1!8m2!3d25.446079!4d81.87689!16s%2Fg%2F11hqk5hmkk!19sChIJq5VfsBS1mjkRwUV6IIvtB98?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
     <t>https://www.google.co.in/maps/place/Saket+Hospital/data=!4m7!3m6!1s0x399ab55e8462df8d:0x2e414599593aab6!8m2!3d25.4578715!4d81.8711465!16s%2Fg%2F11_skhg1y!19sChIJjd9ihF61mjkRtqqTlVkU5AI?authuser=0&amp;hl=en&amp;rclk=1</t>
   </si>
   <si>
     <t>https://www.google.co.in/maps/place/Haiza+Hospital/data=!4m7!3m6!1s0x399ab550fc082acf:0xb6c7a2cbeb83b13a!8m2!3d25.4470336!4d81.873942!16s%2Fg%2F1hm2f71rc!19sChIJzyoI_FC1mjkROrGD68uix7Y?authuser=0&amp;hl=en&amp;rclk=1</t>
   </si>
   <si>
+    <t>https://www.google.co.in/maps/place/Jaya+Hospital/data=!4m7!3m6!1s0x399acad16d98ab95:0xb3bbf87b56059bd0!8m2!3d25.4433859!4d81.8667063!16s%2Fg%2F1tf9wt__!19sChIJlauYbdHKmjkR0JsFVnv4u7M?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Tilak+Hospital/data=!4m7!3m6!1s0x399ab55165c29d65:0xe56c3bcd6d10cb6c!8m2!3d25.4444258!4d81.8733556!16s%2Fg%2F124yhc2gq!19sChIJZZ3CZVG1mjkRbMsQbc07bOU?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Shreshthi+Hospital/data=!4m7!3m6!1s0x399acaaa2b7c8ffb:0x97e9aef8b2035303!8m2!3d25.4428027!4d81.863548!16s%2Fg%2F124ycd51y!19sChIJ-498K6rKmjkRA1MDsviu6Zc?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Hotel+Prayag+-+Best+Hotel+Near+Railway+Station%2F+Top+Hotel+Near+Railway+Station%2F+Best+Hotel+In+Prayagraj/data=!4m10!3m9!1s0x399acad659af35c7:0x740f5c7cdb89c6cc!5m2!4m1!1i2!8m2!3d25.44305!4d81.824961!16s%2Fg%2F11bx_2cvvy!19sChIJxzWvWdbKmjkRzMaJ23xcD3Q?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Vineet+Hotel/data=!4m10!3m9!1s0x399acace99cba0f3:0x88b9d3e4a30dafb9!5m2!4m1!1i2!8m2!3d25.44235!4d81.837282!16s%2Fg%2F11c2np_9ct!19sChIJ86DLmc7KmjkRua8No-TTuYg?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
     <t>https://www.google.co.in/maps/place/Hotel+Ranjan/data=!4m10!3m9!1s0x399ab5500d8ef16b:0xe99176771f223589!5m2!4m1!1i2!8m2!3d25.4490721!4d81.8759352!16s%2Fg%2F1hm2sj2fd!19sChIJa_GODVC1mjkRiTUiH3d2kek?authuser=0&amp;hl=en&amp;rclk=1</t>
   </si>
   <si>
     <t>https://www.google.co.in/maps/place/Swastik+Hotel/data=!4m10!3m9!1s0x399ab5e322d7af27:0xe17829fa9c8ed8ff!5m2!4m1!1i2!8m2!3d25.4538427!4d81.8717679!16s%2Fg%2F11fjtymxf5!19sChIJJ6_XIuO1mjkR_9iOnPopeOE?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/OYO+40436+Hotel+Ganga+Vilas/data=!4m10!3m9!1s0x399ab50b96c26e1b:0xec32bbc87366d0c1!5m2!4m1!1i2!8m2!3d25.4511607!4d81.8754091!16s%2Fg%2F11f66tbp6_!19sChIJG27Clgu1mjkRwdBmc8i7Muw?authuser=0&amp;hl=en&amp;rclk=1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -69,6 +150,21 @@
       <family val="2"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -97,9 +193,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -403,108 +507,452 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -512,5 +960,6 @@
     <hyperlink ref="B1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/googlemaplink.xlsx
+++ b/googlemaplink.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="61">
   <si>
     <t>SerialNo</t>
   </si>
@@ -33,109 +33,175 @@
     <t>Zipcode</t>
   </si>
   <si>
-    <t>https://www.google.co.in/maps/place/BUSINESS+SARTHI/data=!4m7!3m6!1s0x390cef8f6aaaaaab:0x1ecaa3e636c24ab9!8m2!3d28.6063152!4d77.3855549!16s%2Fg%2F11n90jf4xk!19sChIJq6qqao_vDDkRuUrCNuajyh4?authuser=0&amp;hl=en&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>Business</t>
+    <t>https://www.google.co.in/maps/place/GLOBAL+AIRCON+SERVICES/data=!4m7!3m6!1s0x390ce58b64d26bef:0x64449a2590940eca!8m2!3d28.6108022!4d77.3722902!16s%2Fg%2F11mpc4237z!19sChIJ72vSZIvlDDkRyg6UkCWaRGQ?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>Air conditioning contractor</t>
   </si>
   <si>
     <t>201301</t>
   </si>
   <si>
-    <t>https://www.google.co.in/maps/place/Business+Team/data=!4m7!3m6!1s0x390ce594d80af429:0xba550e863eb05782!8m2!3d28.5733398!4d77.3267832!16s%2Fg%2F11p04wnbh5!19sChIJKfQK2JTlDDkRglewPoYOVbo?authuser=0&amp;hl=en&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.co.in/maps/place/Google+Ads,+PPC+Expert,+Business+Lead,+Application+Development+Company+2011.Wit+Source+Technology+Pravesh+Kumar/data=!4m7!3m6!1s0x390ceff9d399d305:0x9ecb2931a0a7f5c7!8m2!3d28.6127633!4d77.3871319!16s%2Fg%2F11f53q4gh0!19sChIJBdOZ0_nvDDkRx_WnoDEpy54?authuser=0&amp;hl=en&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.co.in/maps/place/Noida+Business+Center/data=!4m7!3m6!1s0x390ce56197fc4865:0xa7ef9bd718f8022c!8m2!3d28.6111637!4d77.3762547!16s%2Fg%2F11c53grj2c!19sChIJZUj8l2HlDDkRLAL4GNeb76c?authuser=0&amp;hl=en&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.co.in/maps/place/Ketsaal+retails/data=!4m7!3m6!1s0x390ce5690a8a556b:0xe3452e8afed3301!8m2!3d28.6072003!4d77.3813878!16s%2Fg%2F11f2wf3v39!19sChIJa1WKCmnlDDkRATPtr-hSNA4?authuser=0&amp;hl=en&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.co.in/maps/place/Prakash+Hospital+-+Best+Hospital+in+Noida/data=!4m7!3m6!1s0x390ce57533094641:0x400722ded7e7d2d6!8m2!3d28.5855917!4d77.3494388!16s%2Fg%2F1hjgrhl16!19sChIJQUYJM3XlDDkR1tLn194iB0A?authuser=0&amp;hl=en&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>Hospitals</t>
-  </si>
-  <si>
-    <t>https://www.google.co.in/maps/place/Metro+Multispeciality+Hospital+:+Top+Multi-Specialty+Hospitals+in+India+for+2012-21/data=!4m7!3m6!1s0x390ce5035eaaaaab:0x2dd548f41f1a66b!8m2!3d28.5973485!4d77.3359651!16s%2Fg%2F1tf3xrt6!19sChIJq6qqXgPlDDkRa6bxQY9U3QI?authuser=0&amp;hl=en&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.co.in/maps/place/Om+Hospital/data=!4m7!3m6!1s0x390ce57d40000001:0x6016329741621b59!8m2!3d28.605394!4d77.3796764!16s%2Fg%2F11b7qr3ptm!19sChIJAQAAQH3lDDkRWRtiQZcyFmA?authuser=0&amp;hl=en&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.co.in/maps/place/Surbhi+Hospital/data=!4m7!3m6!1s0x390ce50660126cdf:0x67ac45b45fb534d8!8m2!3d28.5940646!4d77.3409152!16s%2Fg%2F11by_d80sk!19sChIJ32wSYAblDDkR2DS1X7RFrGc?authuser=0&amp;hl=en&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.co.in/maps/place/Bharat+Hospital+Mini+Multi-specialty/data=!4m7!3m6!1s0x390ce57d5804b335:0x5f49a8b3e2fe078a!8m2!3d28.603399!4d77.3783498!16s%2Fg%2F11f5vg84lv!19sChIJNbMEWH3lDDkRigf-4rOoSV8?authuser=0&amp;hl=en&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.co.in/maps/place/Treebo+Trend+House+Inn+-+Hotel+in+Noida/data=!4m10!3m9!1s0x390cef8197fa88e7:0xdb31531482061dc3!5m2!4m1!1i2!8m2!3d28.595256!4d77.382726!16s%2Fg%2F11gcx_v9b7!19sChIJ54j6l4HvDDkRwx0GghRTMds?authuser=0&amp;hl=en&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>Hotels</t>
-  </si>
-  <si>
-    <t>https://www.google.co.in/maps/place/OYO+19536+New+Apple+Pie/data=!4m10!3m9!1s0x390cef878960cca7:0x1d4bfe337e5195f6!5m2!4m1!1i2!8m2!3d28.602415!4d77.378641!16s%2Fg%2F11fcvb7c12!19sChIJp8xgiYfvDDkR9pVRfjP-Sx0?authuser=0&amp;hl=en&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.co.in/maps/place/Radisson+Blu+MBD+Hotel+Noida/data=!4m10!3m9!1s0x390ce448ebd846e9:0x63fc169409386086!5m2!4m1!1i2!8m2!3d28.5685191!4d77.3226455!16s%2Fg%2F1tf46jb_!19sChIJ6UbY60jkDDkRhmA4CZQW_GM?authuser=0&amp;hl=en&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.co.in/maps/place/OYO+24622+Hotel+Crystal+Leaf/data=!4m10!3m9!1s0x390cef952b3a375b:0x75412688ec23e763!5m2!4m1!1i2!8m2!3d28.5949225!4d77.3828443!16s%2Fg%2F11fj9hmvjg!19sChIJWzc6K5XvDDkRY-cj7IgmQXU?authuser=0&amp;hl=en&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.co.in/maps/place/Mosaic+Hotel+Noida/data=!4m10!3m9!1s0x3a27af2c7febc29f:0x5dc65c5bd936894b!5m2!4m1!1i2!8m2!3d28.5711695!4d77.3252359!16s%2Fg%2F1tctvylc!19sChIJn8LrfyyvJzoRS4k22Vtcxl0?authuser=0&amp;hl=en&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.co.in/maps/place/Shandilya+India+Marketing+Limited/data=!4m7!3m6!1s0x399acaa841be5555:0xb263d386a4ff5b38!8m2!3d25.4475119!4d81.8645333!16s%2Fg%2F11s5cr1q3r!19sChIJVVW-QajKmjkROFv_pIbTY7I?authuser=0&amp;hl=en&amp;rclk=1</t>
+    <t>https://www.google.co.in/maps/place/Aircon+Technique+Pvt+Ltd+-+Chiller,+HVAC,+Ductable+AC+%26+Air+Conditioning+AMC/data=!4m7!3m6!1s0x390d010ceaaaaaab:0xfe07725d790ff8e!8m2!3d28.611235!4d77.3891997!16s%2Fg%2F1tj94tbj!19sChIJq6qq6gwBDTkRjv-Q1yV34A8?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/HVAC+Repair+Services/data=!4m7!3m6!1s0x390ceffaaf2c1b51:0xa2361e4a622a97f9!8m2!3d28.6119462!4d77.3803626!16s%2Fg%2F11q7_2xknr!19sChIJURssr_rvDDkR-ZcqYkoeNqI?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Noida+Aircon/data=!4m7!3m6!1s0x390ce5e9e1d0d193:0xf116dba87bfc49e!8m2!3d28.6025349!4d77.3770382!16s%2Fg%2F11qzhz1n2s!19sChIJk9HQ4enlDDkRnsS_h7ptEQ8?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Air+Balance+ventilation+%26+Air+conditioning/data=!4m7!3m6!1s0x390ce570395d3767:0xfe0c6d73405843c8!8m2!3d28.5904673!4d77.3317569!16s%2Fg%2F11h7dcx3nk!19sChIJZzddOXDlDDkRyENYQHNtDP4?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Aerotech+Air+Compressor+%26+Dryer/data=!4m7!3m6!1s0x390ce4560fd6740f:0x65774d6d0e03f2bb!8m2!3d28.5955032!4d77.3150412!16s%2Fg%2F1tgyv252!19sChIJD3TWD1bkDDkRu_IDDm1Nd2U?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>Air compressor supplier</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Universal+Industries+Private+Limited/data=!4m7!3m6!1s0x390ce4f95fe5f9eb:0x9b22c1eab8c9f389!8m2!3d28.593398!4d77.325307!16s%2Fg%2F1td2f8qj!19sChIJ6_nlX_nkDDkRifPJuOrBIps?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Fiavel+Equipments/data=!4m7!3m6!1s0x390ce5ef90c73c3d:0xa7dd0cfc71fd7e59!8m2!3d28.5807826!4d77.31706!16s%2Fg%2F11n04wgcjn!19sChIJPTzHkO_lDDkRWX79cfwM3ac?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Saim+Air+Pvt,Ltd/data=!4m7!3m6!1s0x390ce501c9d71cd9:0x6e507d41cd504b57!8m2!3d28.5904673!4d77.3317569!16s%2Fg%2F1tvm146y!19sChIJ2RzXyQHlDDkRV0tQzUF9UG4?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/SVR+Compressors+And+Engineering+Private+Limited/data=!4m7!3m6!1s0x390ce5ba8b931d31:0x95db9a66b3a4a922!8m2!3d28.575552!4d77.345103!16s%2Fg%2F1ptyn68j_!19sChIJMR2Ti7rlDDkRIqmks2aa25U?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Hi+Tech+Cool+Center-AC+repairs+,AC+SERVICE+,AC+INSTALLATION+,AC+GAS+FILLING+,BEST+AC+repairs+in+noida/data=!4m7!3m6!1s0x390ce50ebfffffff:0x66251281c5f8233e!8m2!3d28.5970693!4d77.3482207!16s%2Fg%2F11sw_sg82b!19sChIJ____vw7lDDkRPiP4xYESJWY?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>Air conditioning repair service</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Sk+Ac+Service+in+Noida+%7C+Best+AC+Repair+In+Noida/data=!4m7!3m6!1s0x390ce5fd2f6acc67:0xc0f98e556a55a0df!8m2!3d28.5825273!4d77.3690496!16s%2Fg%2F11lt53x0gh!19sChIJZ8xqL_3lDDkR36BValWO-cA?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Infinity+Air+Conditioner+System/data=!4m7!3m6!1s0x390ce5da6093ba4f:0x5a7db1a949200258!8m2!3d28.5812686!4d77.3673475!16s%2Fg%2F11fm4_2mq6!19sChIJT7qTYNrlDDkRWAIgSamxfVo?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Hind+cool+center-AC+Repair,AC+service,ac+on+hire,ac+gas+filling+in+noida/data=!4m7!3m6!1s0x390ce52157097e79:0x84a5d44349078c35!8m2!3d28.5826297!4d77.3267681!16s%2Fg%2F11r7xvq0bd!19sChIJeX4JVyHlDDkRNYwHSUPUpYQ?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/A+One+AC+Service+in+Noida,+AC+Repair+in+Noida,+AC+Installation,+AC+on+Rent+Noida/data=!4m7!3m6!1s0x390ce5635cdee04f:0xaca718d546ee1c9f!8m2!3d28.6049692!4d77.3732821!16s%2Fg%2F11f57k7s36!19sChIJT-DeXGPlDDkRnxzuRtUYp6w?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Star+Air+Conditioning/data=!4m7!3m6!1s0x390ce456aaaaaaab:0x60794a1e464b17d9!8m2!3d28.5909973!4d77.3339051!16s%2Fg%2F11h_cj4xqp!19sChIJq6qqqlbkDDkR2RdLRh5KeWA?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>Air conditioning store</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/S.V.L.+System+%26+Service/data=!4m7!3m6!1s0x390ce5084d6799d5:0x97ea1184fd3f1f6c!8m2!3d28.5914939!4d77.3465762!16s%2Fg%2F1ptxpqmpq!19sChIJ1ZlnTQjlDDkRbB8__YQR6pc?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Air+Sales+Corporation/data=!4m7!3m6!1s0x390ce50459e42f71:0x771e994474245129!8m2!3d28.5949458!4d77.3426915!16s%2Fg%2F11b_3gxl4k!19sChIJcS_kWQTlDDkRKVEkdESZHnc?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Mishra+Refrigeration+Engineers+Pvt+Ltd/data=!4m7!3m6!1s0x390ce500f6d0d5e7:0x1e0b6ef32b320985!8m2!3d28.5906359!4d77.3355894!16s%2Fg%2F11cm0q6wxd!19sChIJ59XQ9gDlDDkRhQkyK_NuCx4?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Ice+Energy+Corporation/data=!4m7!3m6!1s0x390ce5ae4049d439:0x3c6db450b20544b3!8m2!3d28.5785669!4d77.3390358!16s%2Fg%2F124t2qnwx!19sChIJOdRJQK7lDDkRs0QFslC0bTw?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Air+condition+service+(max+Aircon)/data=!4m7!3m6!1s0x390ce566c04d9019:0x8cfa4a48dfd9c567!8m2!3d28.5904673!4d77.3317569!16s%2Fg%2F11h5w6xkt9!19sChIJGZBNwGblDDkRZ8XZ30hK-ow?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>Aggregate supplier</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/G.S.Air+Conditioning/data=!4m7!3m6!1s0x390ce4f8b2bcd42d:0xcbe627302b437aad!8m2!3d28.5886174!4d77.3266277!16s%2Fg%2F11cmbj9m6z!19sChIJLdS8svjkDDkRrXpDKzAn5ss?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Newness+Air+Conditioning/data=!4m7!3m6!1s0x390ce40c8eaaaaab:0xcbdbd9857eacb935!8m2!3d28.5592382!4d77.2933104!16s%2Fg%2F11q4c9fwhs!19sChIJq6qqjgzkDDkRNbmsfoXZ28s?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/AUMEX+HVAC+INDIA+PVT.+LTD./data=!4m7!3m6!1s0x390ce5ec4bb9e31d:0xbb621d672308390d!8m2!3d28.5923262!4d77.3335484!16s%2Fg%2F1tcy7846!19sChIJHeO5S-zlDDkRDTkII2cdYrs?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/bestaircon.in/data=!4m7!3m6!1s0x390ce593d74574e7:0x54e19ae930273d11!8m2!3d28.5846875!4d77.3159296!16s%2Fg%2F11q4732xm_!19sChIJ53RF15PlDDkRET0nMOma4VQ?authuser=0&amp;hl=en&amp;rclk=1</t>
   </si>
   <si>
     <t>211006</t>
   </si>
   <si>
-    <t>https://www.google.co.in/maps/place/Maarut+Infra+Business+Solutions/data=!4m7!3m6!1s0x399ab53f81007e1b:0x971dfdb37a07d65d!8m2!3d25.4470188!4d81.8776364!16s%2Fg%2F11kcv5915f!19sChIJG34AgT-1mjkRXdYHerP9HZc?authuser=0&amp;hl=en&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.co.in/maps/place/Business+%26+Service+Solutions/data=!4m7!3m6!1s0x399ab5fefb7b8c51:0xedbe79397730143e!8m2!3d25.447362!4d81.8785337!16s%2Fg%2F11rkp0gpfh!19sChIJUYx7-_61mjkRPhQwdzl5vu0?authuser=0&amp;hl=en&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.co.in/maps/place/Shakti+Dhar+Dubey+%7C+Top+Business+Growth+Consultant+in+Allahabad+%7C+Best+Strategy+for+Business+Growth/data=!4m7!3m6!1s0x399acb48c8c4bd85:0x2c0e45b76e63176e!8m2!3d25.4490782!4d81.8542855!16s%2Fg%2F11rvbns477!19sChIJhb3EyEjLmjkRbhdjbrdFDiw?authuser=0&amp;hl=en&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.co.in/maps/place/Aarsh+Infra+Business+Solutions/data=!4m7!3m6!1s0x399ab514b05f95ab:0xdf07ed8b207a45c1!8m2!3d25.446079!4d81.87689!16s%2Fg%2F11hqk5hmkk!19sChIJq5VfsBS1mjkRwUV6IIvtB98?authuser=0&amp;hl=en&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.co.in/maps/place/Saket+Hospital/data=!4m7!3m6!1s0x399ab55e8462df8d:0x2e414599593aab6!8m2!3d25.4578715!4d81.8711465!16s%2Fg%2F11_skhg1y!19sChIJjd9ihF61mjkRtqqTlVkU5AI?authuser=0&amp;hl=en&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.co.in/maps/place/Haiza+Hospital/data=!4m7!3m6!1s0x399ab550fc082acf:0xb6c7a2cbeb83b13a!8m2!3d25.4470336!4d81.873942!16s%2Fg%2F1hm2f71rc!19sChIJzyoI_FC1mjkROrGD68uix7Y?authuser=0&amp;hl=en&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.co.in/maps/place/Jaya+Hospital/data=!4m7!3m6!1s0x399acad16d98ab95:0xb3bbf87b56059bd0!8m2!3d25.4433859!4d81.8667063!16s%2Fg%2F1tf9wt__!19sChIJlauYbdHKmjkR0JsFVnv4u7M?authuser=0&amp;hl=en&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.co.in/maps/place/Tilak+Hospital/data=!4m7!3m6!1s0x399ab55165c29d65:0xe56c3bcd6d10cb6c!8m2!3d25.4444258!4d81.8733556!16s%2Fg%2F124yhc2gq!19sChIJZZ3CZVG1mjkRbMsQbc07bOU?authuser=0&amp;hl=en&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.co.in/maps/place/Shreshthi+Hospital/data=!4m7!3m6!1s0x399acaaa2b7c8ffb:0x97e9aef8b2035303!8m2!3d25.4428027!4d81.863548!16s%2Fg%2F124ycd51y!19sChIJ-498K6rKmjkRA1MDsviu6Zc?authuser=0&amp;hl=en&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.co.in/maps/place/Hotel+Prayag+-+Best+Hotel+Near+Railway+Station%2F+Top+Hotel+Near+Railway+Station%2F+Best+Hotel+In+Prayagraj/data=!4m10!3m9!1s0x399acad659af35c7:0x740f5c7cdb89c6cc!5m2!4m1!1i2!8m2!3d25.44305!4d81.824961!16s%2Fg%2F11bx_2cvvy!19sChIJxzWvWdbKmjkRzMaJ23xcD3Q?authuser=0&amp;hl=en&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.co.in/maps/place/Vineet+Hotel/data=!4m10!3m9!1s0x399acace99cba0f3:0x88b9d3e4a30dafb9!5m2!4m1!1i2!8m2!3d25.44235!4d81.837282!16s%2Fg%2F11c2np_9ct!19sChIJ86DLmc7KmjkRua8No-TTuYg?authuser=0&amp;hl=en&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.co.in/maps/place/Hotel+Ranjan/data=!4m10!3m9!1s0x399ab5500d8ef16b:0xe99176771f223589!5m2!4m1!1i2!8m2!3d25.4490721!4d81.8759352!16s%2Fg%2F1hm2sj2fd!19sChIJa_GODVC1mjkRiTUiH3d2kek?authuser=0&amp;hl=en&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.co.in/maps/place/Swastik+Hotel/data=!4m10!3m9!1s0x399ab5e322d7af27:0xe17829fa9c8ed8ff!5m2!4m1!1i2!8m2!3d25.4538427!4d81.8717679!16s%2Fg%2F11fjtymxf5!19sChIJJ6_XIuO1mjkR_9iOnPopeOE?authuser=0&amp;hl=en&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.co.in/maps/place/OYO+40436+Hotel+Ganga+Vilas/data=!4m10!3m9!1s0x399ab50b96c26e1b:0xec32bbc87366d0c1!5m2!4m1!1i2!8m2!3d25.4511607!4d81.8754091!16s%2Fg%2F11f66tbp6_!19sChIJG27Clgu1mjkRwdBmc8i7Muw?authuser=0&amp;hl=en&amp;rclk=1</t>
+    <t>https://www.google.co.in/maps/place/COOL+AIR+SERVICES/data=!4m7!3m6!1s0x390ce53cb47254d3:0x5259a511569f7ee2!8m2!3d28.5670702!4d77.2870265!16s%2Fg%2F11gxfqt3n_!19sChIJ01RytDzlDDkR4n6fVhGlWVI?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Flouser/data=!4m7!3m6!1s0x390ce307dd252359:0xdfbd1b5fcecda782!8m2!3d28.5629182!4d77.2658406!16s%2Fg%2F11l8ssp2cz!19sChIJWSMl3QfjDDkRgqfNzl8bvd8?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Warsi+Air+compressor/data=!4m7!3m6!1s0x390ce1ca4b01a2cd:0x63f5d3c0243bc188!8m2!3d28.5353504!4d77.264605!16s%2Fg%2F11fpsbd22l!19sChIJzaIBS8rhDDkRiME7JMDT9WM?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/CLIMATE+AIR+CONDITIONING/data=!4m7!3m6!1s0x390ce5f021f4b52d:0xfe89faf464dbc3b!8m2!3d20.9880134!4d82.7525294!16s%2Fg%2F11rtrxmcdf!19sChIJLbX0IfDlDDkRO7xNRq-f6A8?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Ac+%26+Air+conditionin+Repair/data=!4m7!3m6!1s0x390ce50c80e29cd9:0x458f971b3657572a!8m2!3d28.5592382!4d77.2933104!16s%2Fg%2F11r0jr2j95!19sChIJ2ZzigAzlDDkRKldXNhuXj0U?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/HC+Cooling+System/data=!4m7!3m6!1s0x390ce5f774375d81:0x79c35df2aebb2552!8m2!3d28.5450672!4d77.3009542!16s%2Fg%2F11qbq_ttcw!19sChIJgV03dPflDDkRUiW7rvJdw3k?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Surya+Air-conditioning+%26+Refrigeration/data=!4m7!3m6!1s0x390ce3bb329b6989:0xd48ef5d9629f33b9!8m2!3d28.5694292!4d77.255437!16s%2Fg%2F11p772zsvh!19sChIJiWmbMrvjDDkRuTOfYtn1jtQ?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Glacier+Air+Conditioner/data=!4m7!3m6!1s0x399ab5455c041b2d:0xb21f274efb6820ae!8m2!3d25.450233!4d81.8779113!16s%2Fg%2F11f3n9ypp0!19sChIJLRsEXEW1mjkRriBo-04nH7I?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Yash+Aircon/data=!4m7!3m6!1s0x399acadc9e61fc59:0x2f6a9bede041ae53!8m2!3d25.4520545!4d81.8401076!16s%2Fg%2F11fz9wthtr!19sChIJWfxhntzKmjkRU65B4O2bai8?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Kgn+Enterprises-+complete+Ac+repair+%26+service+partner+in+allahabad/data=!4m7!3m6!1s0x399acb4c109e92b9:0xc66e3b0f01067d00!8m2!3d25.4377597!4d81.792764!16s%2Fg%2F11cndcb67q!19sChIJuZKeEEzLmjkRAH0GAQ87bsY?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Daikin+Airconditioning+Solution+Plaza/data=!4m7!3m6!1s0x399acbd3f2cf7d1d:0x26dd3414a0946951!8m2!3d25.4561376!4d81.8206055!16s%2Fg%2F11g30pc2s3!19sChIJHX3P8tPLmjkRUWmUoBQ03SY?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Air+Innovator/data=!4m7!3m6!1s0x399acb25d3f98273:0x26a63c9205620e!8m2!3d25.452153!4d81.8289674!16s%2Fg%2F11q7bcflqw!19sChIJc4L50yXLmjkRDmIFkjymJgA?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Kohinoor+air+conditioning+co/data=!4m7!3m6!1s0x390ce8a1b110daa1:0xec01d94ec764a6ea!8m2!3d28.5212808!4d77.385332!16s%2Fg%2F11csrcdgdf!19sChIJodoQsaHoDDkR6qZkx07ZAew?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Super+Air+conditioning+Co./data=!4m7!3m6!1s0x390ce8998400006d:0xb671ff29d30d9636!8m2!3d28.521378!4d77.3862795!16s%2Fg%2F11hbpw_5r5!19sChIJbQAAhJnoDDkRNpYN0yn_cbY?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/THE+RECTIFIERS/data=!4m7!3m6!1s0x390ce8bcd931e871:0xf31f450663b750b5!8m2!3d28.5281361!4d77.3909364!16s%2Fg%2F1q6j3x0hn!19sChIJcegx2bzoDDkRtVC3YwZFH_M?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/RK+Air+Conditioner/data=!4m7!3m6!1s0x390ce990047bc6ab:0x1829ce7feeb0e364!8m2!3d28.5123772!4d77.4116866!16s%2Fg%2F11rmvwj6f9!19sChIJq8Z7BJDpDDkRZOOw7n_OKRg?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Snow+Cool+Refrigeration/data=!4m7!3m6!1s0x390ce89f437ab0ff:0xe699fc7e76bfc4ab!8m2!3d28.523979!4d77.383138!16s%2Fg%2F11dxc1wpxv!19sChIJ_7B6Q5_oDDkRq8S_dn78meY?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Refrigeration+%26+HVAC+Equipment/data=!4m7!3m6!1s0x390ce85d8c6451df:0x3209a7801b1613e1!8m2!3d28.5112882!4d77.3915394!16s%2Fg%2F11gg5rm06x!19sChIJ31FkjF3oDDkR4RMWG4CnCTI?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Transcon+engineers/data=!4m7!3m6!1s0x390ce59222efb563:0x90d0dffed7626411!8m2!3d28.5737191!4d77.3653186!16s%2Fg%2F11g9w3q7dc!19sChIJY7XvIpLlDDkREWRi1_7f0JA?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Air+Compressor+,+Oil+Free+Air+Compressor+,+Scroll+Air+Compressor/data=!4m7!3m6!1s0x390ce9007d67f2e9:0xf4026c6eb80add2f!8m2!3d28.539329!4d77.1977617!16s%2Fg%2F11g1llpb41!19sChIJ6fJnfQDpDDkRL90KuG5sAvQ?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>201304</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Indu+AC+Repair/data=!4m7!3m6!1s0x390ce9292f49ecbd:0xa04df983b6b350aa!8m2!3d28.506173!4d77.4149462!16s%2Fg%2F11rtsv6n1p!19sChIJvexJLynpDDkRqlCztoP5TaA?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Cool+Point/data=!4m7!3m6!1s0x390ce9cff6a3e0ef:0x87266f06db4fcecc!8m2!3d28.5324556!4d77.3850245!16s%2Fg%2F11hz994d9v!19sChIJ7-Cj9s_pDDkRzM5P2wZvJoc?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/Tarun+Electricals+%26+Air+Conditioning/data=!4m7!3m6!1s0x390ce8a1e4a4e70b:0xe17cb7be1d0ec50b!8m2!3d28.5243371!4d77.3831872!16s%2Fg%2F11f57ftyd0!19sChIJC-ek5KHoDDkRC8UOHb63fOE?authuser=0&amp;hl=en&amp;rclk=1</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/maps/place/GREE+INDIA+AIR+CONDITIONER+AND+APPLINCES+LTD/data=!4m7!3m6!1s0x390ce84f8139609f:0xc3836ad5bd404947!8m2!3d28.5007922!4d77.4100429!16s%2Fg%2F11hbw56607!19sChIJn2A5gU_oDDkRR0lAvdVqg8M?authuser=0&amp;hl=en&amp;rclk=1</t>
   </si>
 </sst>
 </file>
@@ -507,18 +573,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.85546875" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -753,10 +819,10 @@
         <v>23</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -767,10 +833,10 @@
         <v>25</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -781,10 +847,10 @@
         <v>26</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -795,10 +861,10 @@
         <v>27</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -809,10 +875,10 @@
         <v>28</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -823,10 +889,10 @@
         <v>29</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -834,13 +900,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="D23" s="3" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -848,13 +914,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -862,13 +928,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -876,13 +942,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -890,13 +956,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -904,13 +970,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -921,10 +987,10 @@
         <v>36</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -935,10 +1001,10 @@
         <v>37</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -949,11 +1015,587 @@
         <v>38</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D37" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="D42" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
